--- a/biology/Botanique/Helianthus_petiolaris/Helianthus_petiolaris.xlsx
+++ b/biology/Botanique/Helianthus_petiolaris/Helianthus_petiolaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helianthus petiolaris est une espèce de plantes à fleurs de la famille des Asteraceae, communément appelée tournesol des prairies [1] ou petit tournesol, d'origine nord-américaine. Le naturaliste et botaniste Thomas Nuttall a été le premier à décrire le tournesol des prairies en 1821[2],[3]. Le mot petiolaris en latin signifie « avoir un pétiole »[3]. L'espèce est originaire de l'ouest des États-Unis, mais s'est depuis étendue à l'est. Le tournesol des prairies est parfois considéré comme une mauvaise herbe[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helianthus petiolaris est une espèce de plantes à fleurs de la famille des Asteraceae, communément appelée tournesol des prairies  ou petit tournesol, d'origine nord-américaine. Le naturaliste et botaniste Thomas Nuttall a été le premier à décrire le tournesol des prairies en 1821,. Le mot petiolaris en latin signifie « avoir un pétiole ». L'espèce est originaire de l'ouest des États-Unis, mais s'est depuis étendue à l'est. Le tournesol des prairies est parfois considéré comme une mauvaise herbe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthus petiolaris est originaire des prairies sèches du Minnesota, de l'Oregon, du Texas, des Dakota du Sud et du Nord, de la Californie et d'autres États de l'ouest et du centre des États-Unis. Il a depuis étendu sa distribution à tout l'est des États-Unis et dans le centre et l'ouest du Canada. C'est maintenant l'espèce de tournesol la plus répandue avec H. annuus.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tournesols des prairies poussent couramment dans les zones sablonneuses. On les trouve aussi dans les sols argileux lourds et dans les prairies sèches. Ils sont incapables de pousser dans des zones ombragées, ils doivent être en plein soleil. Les tournesols des prairies ont besoin d'un sol sec à humide. Cette espèce de tournesol est annuelle, qui fleurit entre juin et septembre.
 </t>
@@ -573,9 +589,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournesol des prairies est une annuelle à racine pivotante. Il pousse jusqu'à 120 cm de hauteur. Les feuilles semblent alternes et les fleurs ressemblent beaucoup au tournesol traditionnel. Les fleurs sont hermaphrodites, ce qui signifie que les fleurs contiennent à la fois des parties mâles et femelles. La tige de la fleur est dressée et velue. Les feuilles sont alternes, lancéolées, sont de texture rugueuse, de couleur bleu-vert et ont une longueur comprise entre 5 et 15 cm [5],[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournesol des prairies est une annuelle à racine pivotante. Il pousse jusqu'à 120 cm de hauteur. Les feuilles semblent alternes et les fleurs ressemblent beaucoup au tournesol traditionnel. Les fleurs sont hermaphrodites, ce qui signifie que les fleurs contiennent à la fois des parties mâles et femelles. La tige de la fleur est dressée et velue. Les feuilles sont alternes, lancéolées, sont de texture rugueuse, de couleur bleu-vert et ont une longueur comprise entre 5 et 15 cm ,
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helianthus petiolaris a des capitules semblables à ceux d'un tournesol commun, H. annuus. Les fruits sont des akènes. Le capitule  contient 10-30 fleurons ligulés, entourant 50-100 fleurons rouge foncé brun. L’arrière du capitule porte des bractées lancéolées, ou bractées involucrales, vertes[7]. Le centre du capitule présente des reflets blancs dus à la présence de poils blancs sur les fleurons immatures. Les fleurs attirent les papillons et les abeilles pour la pollinisation[1],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helianthus petiolaris a des capitules semblables à ceux d'un tournesol commun, H. annuus. Les fruits sont des akènes. Le capitule  contient 10-30 fleurons ligulés, entourant 50-100 fleurons rouge foncé brun. L’arrière du capitule porte des bractées lancéolées, ou bractées involucrales, vertes. Le centre du capitule présente des reflets blancs dus à la présence de poils blancs sur les fleurons immatures. Les fleurs attirent les papillons et les abeilles pour la pollinisation,.
 </t>
         </is>
       </c>
@@ -637,12 +657,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentaire
-Les graines de la plante sont comestibles et peuvent être broyées en un tourteau huileux ou en un beurre[8].
-Médicinal
-Les feuilles en poudre peuvent être utilisées pour soigner des plaies et des œdèmes[9].
-Sélection génétique
-En 1969, Leclercq a découvert la stérilité mâle cytoplasmique (CMS) PET-1 dans une population de H. petiolaris[10], puis en 1984 les loci de restauration de fertilité Rf1 et Rf2 [11]. Ce système PET-1/Rf1 [12]est aujourd'hui très largement utilisé par les semenciers pour la production d’hybrides F1.
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines de la plante sont comestibles et peuvent être broyées en un tourteau huileux ou en un beurre.
 </t>
         </is>
       </c>
@@ -668,13 +689,89 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médicinal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles en poudre peuvent être utilisées pour soigner des plaies et des œdèmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helianthus_petiolaris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_petiolaris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélection génétique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1969, Leclercq a découvert la stérilité mâle cytoplasmique (CMS) PET-1 dans une population de H. petiolaris, puis en 1984 les loci de restauration de fertilité Rf1 et Rf2 . Ce système PET-1/Rf1 est aujourd'hui très largement utilisé par les semenciers pour la production d’hybrides F1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Helianthus_petiolaris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_petiolaris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[13],[1]
-Helianthus petiolaris var. canescens A.Gray - Arizona, Californie, Nevada, Nouveau-Mexique, Texas, Chihuahua [14]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>,
+Helianthus petiolaris var. canescens A.Gray - Arizona, Californie, Nevada, Nouveau-Mexique, Texas, Chihuahua 
 Helianthus petiolaris var. var. fallax (Heiser) BLTurner - Arizona, Colorado, Nevada, Utah
 Helianthus petiolaris var. var. petiolaris - la plupart de l'aire de répartition des espèces</t>
         </is>
